--- a/biology/Botanique/Abrus/Abrus.xlsx
+++ b/biology/Botanique/Abrus/Abrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrus (latin abrus, de l'arabe abrūz) est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales de l'Ancien Monde, qui comprend une vingtaine d'espèces acceptées. C'est l'unique genre de la tribu des Abreae (tribu monotypique). 
 Cet arbuste (papilionacée) de l'Inde a une tige grêle qui est souvent volubile et s'enroule autour de son support par thigmotropisme. Ses racines ont un goût de réglisse ; ses graines d'un rouge vif sont toxiques, et sont utilisées pour confectionner des chapelets et des colliers.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (12 juillet 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (12 juillet 2018) :
 Abrus aureus R.Vig.
 Abrus baladensis Thulin
 Abrus bottae Deflers
